--- a/ExcelFiles/Suite.xlsx
+++ b/ExcelFiles/Suite.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>SuiteName</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>SuiteC</t>
+  </si>
+  <si>
+    <t>APITestData</t>
   </si>
 </sst>
 </file>
@@ -391,18 +394,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -410,7 +413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -418,7 +421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -426,11 +429,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
